--- a/resultados/pretratamiento-tablas-control/pretrat-espana-elo-dificil-dificultad.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-espana-elo-dificil-dificultad.xlsx
@@ -4077,10 +4077,10 @@
         <v>3.707</v>
       </c>
       <c r="I2">
-        <v>1.225</v>
+        <v>1.707</v>
       </c>
       <c r="J2">
-        <v>0.222</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4109,10 +4109,10 @@
         <v>0.226</v>
       </c>
       <c r="I3">
-        <v>0.079</v>
+        <v>0.073</v>
       </c>
       <c r="J3">
-        <v>0.9370000000000001</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4141,10 +4141,10 @@
         <v>0.698</v>
       </c>
       <c r="I4">
-        <v>0.183</v>
+        <v>0.172</v>
       </c>
       <c r="J4">
-        <v>0.855</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4173,10 +4173,10 @@
         <v>-4.858</v>
       </c>
       <c r="I5">
-        <v>-1.198</v>
+        <v>-0.8070000000000001</v>
       </c>
       <c r="J5">
-        <v>0.233</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4205,10 +4205,10 @@
         <v>-7.418</v>
       </c>
       <c r="I6">
-        <v>-1.768</v>
+        <v>-1.435</v>
       </c>
       <c r="J6">
-        <v>0.079</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4237,10 +4237,10 @@
         <v>-3.407</v>
       </c>
       <c r="I7">
-        <v>-0.823</v>
+        <v>-0.646</v>
       </c>
       <c r="J7">
-        <v>0.411</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4269,10 +4269,10 @@
         <v>-2.256</v>
       </c>
       <c r="I8">
-        <v>-1.622</v>
+        <v>-1.899</v>
       </c>
       <c r="J8">
-        <v>0.106</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4301,10 +4301,10 @@
         <v>-0.573</v>
       </c>
       <c r="I9">
-        <v>-0.407</v>
+        <v>-0.37</v>
       </c>
       <c r="J9">
-        <v>0.6840000000000001</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4333,10 +4333,10 @@
         <v>-0.629</v>
       </c>
       <c r="I10">
-        <v>-0.38</v>
+        <v>-0.383</v>
       </c>
       <c r="J10">
-        <v>0.705</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4365,10 +4365,10 @@
         <v>2.5</v>
       </c>
       <c r="I11">
-        <v>1.481</v>
+        <v>1.15</v>
       </c>
       <c r="J11">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4397,10 +4397,10 @@
         <v>2.732</v>
       </c>
       <c r="I12">
-        <v>1.539</v>
+        <v>1.377</v>
       </c>
       <c r="J12">
-        <v>0.125</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4429,10 +4429,10 @@
         <v>1.089</v>
       </c>
       <c r="I13">
+        <v>0.491</v>
+      </c>
+      <c r="J13">
         <v>0.623</v>
-      </c>
-      <c r="J13">
-        <v>0.534</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4493,10 +4493,10 @@
         <v>-0.001</v>
       </c>
       <c r="I15">
-        <v>-0.025</v>
+        <v>-0.02</v>
       </c>
       <c r="J15">
-        <v>0.98</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4525,10 +4525,10 @@
         <v>-0.157</v>
       </c>
       <c r="I16">
-        <v>-3.771</v>
+        <v>-3.299</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4557,10 +4557,10 @@
         <v>-0.077</v>
       </c>
       <c r="I17">
-        <v>-1.612</v>
+        <v>-1.423</v>
       </c>
       <c r="J17">
-        <v>0.109</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4589,10 +4589,10 @@
         <v>-0.032</v>
       </c>
       <c r="I18">
-        <v>-0.632</v>
+        <v>-0.522</v>
       </c>
       <c r="J18">
-        <v>0.528</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4621,10 +4621,10 @@
         <v>-0.007</v>
       </c>
       <c r="I19">
-        <v>-0.13</v>
+        <v>-0.128</v>
       </c>
       <c r="J19">
-        <v>0.897</v>
+        <v>0.898</v>
       </c>
     </row>
   </sheetData>
@@ -4717,7 +4717,7 @@
         <v>11.101</v>
       </c>
       <c r="J2">
-        <v>3.323</v>
+        <v>3.271</v>
       </c>
       <c r="K2">
         <v>0.001</v>
@@ -4752,10 +4752,10 @@
         <v>-1.442</v>
       </c>
       <c r="J3">
-        <v>-0.482</v>
+        <v>-0.596</v>
       </c>
       <c r="K3">
-        <v>0.63</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4787,10 +4787,10 @@
         <v>4.221</v>
       </c>
       <c r="J4">
-        <v>0.944</v>
+        <v>1.106</v>
       </c>
       <c r="K4">
-        <v>0.346</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4822,10 +4822,10 @@
         <v>1.165</v>
       </c>
       <c r="J5">
-        <v>0.241</v>
+        <v>0.217</v>
       </c>
       <c r="K5">
-        <v>0.8100000000000001</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4857,10 +4857,10 @@
         <v>1.296</v>
       </c>
       <c r="J6">
-        <v>0.263</v>
+        <v>0.245</v>
       </c>
       <c r="K6">
-        <v>0.793</v>
+        <v>0.8070000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4892,10 +4892,10 @@
         <v>-0.359</v>
       </c>
       <c r="J7">
-        <v>-0.075</v>
+        <v>-0.064</v>
       </c>
       <c r="K7">
-        <v>0.9399999999999999</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4927,10 +4927,10 @@
         <v>-5.861</v>
       </c>
       <c r="J8">
-        <v>-3.716</v>
+        <v>-3.324</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4962,10 +4962,10 @@
         <v>0.354</v>
       </c>
       <c r="J9">
-        <v>0.219</v>
+        <v>0.239</v>
       </c>
       <c r="K9">
-        <v>0.827</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4997,10 +4997,10 @@
         <v>-1.575</v>
       </c>
       <c r="J10">
-        <v>-0.798</v>
+        <v>-0.833</v>
       </c>
       <c r="K10">
-        <v>0.426</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5032,10 +5032,10 @@
         <v>-0.376</v>
       </c>
       <c r="J11">
-        <v>-0.184</v>
+        <v>-0.161</v>
       </c>
       <c r="K11">
-        <v>0.854</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5067,10 +5067,10 @@
         <v>-0.702</v>
       </c>
       <c r="J12">
-        <v>-0.334</v>
+        <v>-0.317</v>
       </c>
       <c r="K12">
-        <v>0.739</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5102,10 +5102,10 @@
         <v>-0.156</v>
       </c>
       <c r="J13">
-        <v>-0.076</v>
+        <v>-0.067</v>
       </c>
       <c r="K13">
-        <v>0.9389999999999999</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5137,10 +5137,10 @@
         <v>0.054</v>
       </c>
       <c r="J14">
-        <v>1.861</v>
+        <v>1.758</v>
       </c>
       <c r="K14">
-        <v>0.064</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5172,10 +5172,10 @@
         <v>0.033</v>
       </c>
       <c r="J15">
-        <v>0.893</v>
+        <v>0.77</v>
       </c>
       <c r="K15">
-        <v>0.373</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5207,10 +5207,10 @@
         <v>-0.099</v>
       </c>
       <c r="J16">
-        <v>-1.957</v>
+        <v>-1.696</v>
       </c>
       <c r="K16">
-        <v>0.052</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5242,10 +5242,10 @@
         <v>-0.103</v>
       </c>
       <c r="J17">
-        <v>-1.816</v>
+        <v>-1.561</v>
       </c>
       <c r="K17">
-        <v>0.07099999999999999</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5277,10 +5277,10 @@
         <v>-0.128</v>
       </c>
       <c r="J18">
-        <v>-2.183</v>
+        <v>-2.591</v>
       </c>
       <c r="K18">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5312,10 +5312,10 @@
         <v>-0.026</v>
       </c>
       <c r="J19">
-        <v>-0.439</v>
+        <v>-0.369</v>
       </c>
       <c r="K19">
-        <v>0.661</v>
+        <v>0.712</v>
       </c>
     </row>
   </sheetData>
@@ -5415,10 +5415,10 @@
         <v>11.438</v>
       </c>
       <c r="K2">
-        <v>3.072</v>
+        <v>3.459</v>
       </c>
       <c r="L2">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5453,10 +5453,10 @@
         <v>3.34</v>
       </c>
       <c r="K3">
-        <v>1.009</v>
+        <v>1.014</v>
       </c>
       <c r="L3">
-        <v>0.315</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5491,10 +5491,10 @@
         <v>4.849</v>
       </c>
       <c r="K4">
-        <v>0.978</v>
+        <v>1.146</v>
       </c>
       <c r="L4">
-        <v>0.329</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5529,10 +5529,10 @@
         <v>0.235</v>
       </c>
       <c r="K5">
-        <v>0.044</v>
+        <v>0.05</v>
       </c>
       <c r="L5">
-        <v>0.965</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5567,10 +5567,10 @@
         <v>0.665</v>
       </c>
       <c r="K6">
-        <v>0.121</v>
+        <v>0.107</v>
       </c>
       <c r="L6">
-        <v>0.903</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5605,10 +5605,10 @@
         <v>-1.792</v>
       </c>
       <c r="K7">
-        <v>-0.338</v>
+        <v>-0.303</v>
       </c>
       <c r="L7">
-        <v>0.736</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5643,7 +5643,7 @@
         <v>-5.944</v>
       </c>
       <c r="K8">
-        <v>-3.374</v>
+        <v>-3.31</v>
       </c>
       <c r="L8">
         <v>0.001</v>
@@ -5681,10 +5681,10 @@
         <v>-2.128</v>
       </c>
       <c r="K9">
-        <v>-1.193</v>
+        <v>-1.158</v>
       </c>
       <c r="L9">
-        <v>0.234</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5719,10 +5719,10 @@
         <v>-1.854</v>
       </c>
       <c r="K10">
-        <v>-0.846</v>
+        <v>-0.875</v>
       </c>
       <c r="L10">
-        <v>0.399</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5757,10 +5757,10 @@
         <v>0.162</v>
       </c>
       <c r="K11">
-        <v>0.07099999999999999</v>
+        <v>0.081</v>
       </c>
       <c r="L11">
-        <v>0.9429999999999999</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -5795,10 +5795,10 @@
         <v>-0.103</v>
       </c>
       <c r="K12">
-        <v>-0.044</v>
+        <v>-0.039</v>
       </c>
       <c r="L12">
-        <v>0.965</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5833,10 +5833,10 @@
         <v>0.726</v>
       </c>
       <c r="K13">
-        <v>0.32</v>
+        <v>0.284</v>
       </c>
       <c r="L13">
-        <v>0.749</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -5871,10 +5871,10 @@
         <v>0.031</v>
       </c>
       <c r="K14">
-        <v>0.959</v>
+        <v>0.798</v>
       </c>
       <c r="L14">
-        <v>0.339</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -5909,10 +5909,10 @@
         <v>0.007</v>
       </c>
       <c r="K15">
-        <v>0.176</v>
+        <v>0.131</v>
       </c>
       <c r="L15">
-        <v>0.861</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -5947,10 +5947,10 @@
         <v>-0.123</v>
       </c>
       <c r="K16">
-        <v>-2.184</v>
+        <v>-1.748</v>
       </c>
       <c r="L16">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -5985,10 +5985,10 @@
         <v>-0.128</v>
       </c>
       <c r="K17">
-        <v>-2.051</v>
+        <v>-1.477</v>
       </c>
       <c r="L17">
-        <v>0.042</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -6023,10 +6023,10 @@
         <v>-0.13</v>
       </c>
       <c r="K18">
-        <v>-1.986</v>
+        <v>-2.12</v>
       </c>
       <c r="L18">
-        <v>0.049</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -6061,10 +6061,10 @@
         <v>0.01</v>
       </c>
       <c r="K19">
-        <v>0.158</v>
+        <v>0.151</v>
       </c>
       <c r="L19">
-        <v>0.874</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -6164,10 +6164,10 @@
         <v>9.367000000000001</v>
       </c>
       <c r="K2">
-        <v>2.153</v>
+        <v>2.992</v>
       </c>
       <c r="L2">
-        <v>0.033</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -6202,10 +6202,10 @@
         <v>4.022</v>
       </c>
       <c r="K3">
-        <v>1.054</v>
+        <v>1.116</v>
       </c>
       <c r="L3">
-        <v>0.293</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -6240,10 +6240,10 @@
         <v>4.264</v>
       </c>
       <c r="K4">
-        <v>0.745</v>
+        <v>0.972</v>
       </c>
       <c r="L4">
-        <v>0.457</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -6278,10 +6278,10 @@
         <v>-2.837</v>
       </c>
       <c r="K5">
-        <v>-0.46</v>
+        <v>-0.526</v>
       </c>
       <c r="L5">
-        <v>0.646</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -6316,10 +6316,10 @@
         <v>-2.078</v>
       </c>
       <c r="K6">
-        <v>-0.329</v>
+        <v>-0.286</v>
       </c>
       <c r="L6">
-        <v>0.742</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -6354,10 +6354,10 @@
         <v>-2.333</v>
       </c>
       <c r="K7">
-        <v>-0.381</v>
+        <v>-0.401</v>
       </c>
       <c r="L7">
-        <v>0.703</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -6392,10 +6392,10 @@
         <v>-4.855</v>
       </c>
       <c r="K8">
-        <v>-2.352</v>
+        <v>-2.625</v>
       </c>
       <c r="L8">
-        <v>0.02</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6430,10 +6430,10 @@
         <v>-2.265</v>
       </c>
       <c r="K9">
-        <v>-1.101</v>
+        <v>-1.193</v>
       </c>
       <c r="L9">
-        <v>0.273</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -6468,10 +6468,10 @@
         <v>-1.486</v>
       </c>
       <c r="K10">
-        <v>-0.588</v>
+        <v>-0.713</v>
       </c>
       <c r="L10">
-        <v>0.5580000000000001</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6506,10 +6506,10 @@
         <v>0.996</v>
       </c>
       <c r="K11">
-        <v>0.381</v>
+        <v>0.418</v>
       </c>
       <c r="L11">
-        <v>0.704</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6544,10 +6544,10 @@
         <v>1.283</v>
       </c>
       <c r="K12">
-        <v>0.477</v>
+        <v>0.441</v>
       </c>
       <c r="L12">
-        <v>0.634</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -6582,10 +6582,10 @@
         <v>0.782</v>
       </c>
       <c r="K13">
-        <v>0.299</v>
+        <v>0.307</v>
       </c>
       <c r="L13">
-        <v>0.765</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -6620,10 +6620,10 @@
         <v>0.041</v>
       </c>
       <c r="K14">
-        <v>1.093</v>
+        <v>1.189</v>
       </c>
       <c r="L14">
-        <v>0.276</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -6658,10 +6658,10 @@
         <v>0.019</v>
       </c>
       <c r="K15">
-        <v>0.398</v>
+        <v>0.345</v>
       </c>
       <c r="L15">
-        <v>0.6909999999999999</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -6696,10 +6696,10 @@
         <v>-0.093</v>
       </c>
       <c r="K16">
-        <v>-1.418</v>
+        <v>-1.329</v>
       </c>
       <c r="L16">
-        <v>0.158</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -6734,10 +6734,10 @@
         <v>-0.056</v>
       </c>
       <c r="K17">
-        <v>-0.767</v>
+        <v>-0.532</v>
       </c>
       <c r="L17">
-        <v>0.444</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -6772,10 +6772,10 @@
         <v>-0.141</v>
       </c>
       <c r="K18">
-        <v>-1.87</v>
+        <v>-2.123</v>
       </c>
       <c r="L18">
-        <v>0.063</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -6810,10 +6810,10 @@
         <v>0.029</v>
       </c>
       <c r="K19">
-        <v>0.376</v>
+        <v>0.48</v>
       </c>
       <c r="L19">
-        <v>0.707</v>
+        <v>0.631</v>
       </c>
     </row>
   </sheetData>
@@ -6899,10 +6899,10 @@
         <v>7.666</v>
       </c>
       <c r="I2">
-        <v>2.66</v>
+        <v>2.677</v>
       </c>
       <c r="J2">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6931,10 +6931,10 @@
         <v>0.044</v>
       </c>
       <c r="I3">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="J3">
-        <v>0.986</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6963,10 +6963,10 @@
         <v>0.098</v>
       </c>
       <c r="I4">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="J4">
-        <v>0.98</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6995,10 +6995,10 @@
         <v>-6.049</v>
       </c>
       <c r="I5">
-        <v>-1.45</v>
+        <v>-1.147</v>
       </c>
       <c r="J5">
-        <v>0.149</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7027,10 +7027,10 @@
         <v>-0.133</v>
       </c>
       <c r="I6">
-        <v>-0.032</v>
+        <v>-0.036</v>
       </c>
       <c r="J6">
-        <v>0.975</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7059,10 +7059,10 @@
         <v>0.357</v>
       </c>
       <c r="I7">
-        <v>0.091</v>
+        <v>0.094</v>
       </c>
       <c r="J7">
-        <v>0.928</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7091,10 +7091,10 @@
         <v>-3.526</v>
       </c>
       <c r="I8">
-        <v>-2.581</v>
+        <v>-2.699</v>
       </c>
       <c r="J8">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7123,10 +7123,10 @@
         <v>0.22</v>
       </c>
       <c r="I9">
-        <v>0.165</v>
+        <v>0.153</v>
       </c>
       <c r="J9">
-        <v>0.869</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7155,10 +7155,10 @@
         <v>0.26</v>
       </c>
       <c r="I10">
-        <v>0.155</v>
+        <v>0.175</v>
       </c>
       <c r="J10">
-        <v>0.877</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7187,10 +7187,10 @@
         <v>2.826</v>
       </c>
       <c r="I11">
-        <v>1.611</v>
+        <v>1.31</v>
       </c>
       <c r="J11">
-        <v>0.109</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7219,10 +7219,10 @@
         <v>0.303</v>
       </c>
       <c r="I12">
-        <v>0.171</v>
+        <v>0.225</v>
       </c>
       <c r="J12">
-        <v>0.864</v>
+        <v>0.822</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7251,10 +7251,10 @@
         <v>-0.205</v>
       </c>
       <c r="I13">
-        <v>-0.123</v>
+        <v>-0.132</v>
       </c>
       <c r="J13">
-        <v>0.902</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7283,10 +7283,10 @@
         <v>0.036</v>
       </c>
       <c r="I14">
-        <v>1.436</v>
+        <v>1.333</v>
       </c>
       <c r="J14">
-        <v>0.153</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7315,10 +7315,10 @@
         <v>0.015</v>
       </c>
       <c r="I15">
-        <v>0.474</v>
+        <v>0.477</v>
       </c>
       <c r="J15">
-        <v>0.636</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7347,10 +7347,10 @@
         <v>-0.095</v>
       </c>
       <c r="I16">
-        <v>-2.16</v>
+        <v>-1.874</v>
       </c>
       <c r="J16">
-        <v>0.032</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7379,10 +7379,10 @@
         <v>-0.031</v>
       </c>
       <c r="I17">
-        <v>-0.617</v>
+        <v>-0.62</v>
       </c>
       <c r="J17">
-        <v>0.538</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7411,10 +7411,10 @@
         <v>-0.044</v>
       </c>
       <c r="I18">
-        <v>-0.841</v>
+        <v>-0.726</v>
       </c>
       <c r="J18">
-        <v>0.402</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7443,10 +7443,10 @@
         <v>0.027</v>
       </c>
       <c r="I19">
-        <v>0.527</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="J19">
-        <v>0.599</v>
+        <v>0.573</v>
       </c>
     </row>
   </sheetData>
@@ -7539,10 +7539,10 @@
         <v>10.306</v>
       </c>
       <c r="J2">
-        <v>2.937</v>
+        <v>3.256</v>
       </c>
       <c r="K2">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7574,10 +7574,10 @@
         <v>1.163</v>
       </c>
       <c r="J3">
-        <v>0.393</v>
+        <v>0.397</v>
       </c>
       <c r="K3">
-        <v>0.695</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7609,10 +7609,10 @@
         <v>5.259</v>
       </c>
       <c r="J4">
-        <v>1.133</v>
+        <v>1.117</v>
       </c>
       <c r="K4">
-        <v>0.259</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7644,10 +7644,10 @@
         <v>-3.413</v>
       </c>
       <c r="J5">
-        <v>-0.665</v>
+        <v>-0.66</v>
       </c>
       <c r="K5">
-        <v>0.507</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7679,10 +7679,10 @@
         <v>0.972</v>
       </c>
       <c r="J6">
-        <v>0.191</v>
+        <v>0.22</v>
       </c>
       <c r="K6">
-        <v>0.849</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7714,10 +7714,10 @@
         <v>0.306</v>
       </c>
       <c r="J7">
-        <v>0.064</v>
+        <v>0.05</v>
       </c>
       <c r="K7">
-        <v>0.949</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7749,10 +7749,10 @@
         <v>-5.297</v>
       </c>
       <c r="J8">
-        <v>-3.205</v>
+        <v>-3.72</v>
       </c>
       <c r="K8">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7784,10 +7784,10 @@
         <v>-0.8120000000000001</v>
       </c>
       <c r="J9">
-        <v>-0.498</v>
+        <v>-0.43</v>
       </c>
       <c r="K9">
-        <v>0.619</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7819,10 +7819,10 @@
         <v>-1.695</v>
       </c>
       <c r="J10">
-        <v>-0.829</v>
+        <v>-0.778</v>
       </c>
       <c r="K10">
-        <v>0.408</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7854,10 +7854,10 @@
         <v>1.453</v>
       </c>
       <c r="J11">
-        <v>0.673</v>
+        <v>0.64</v>
       </c>
       <c r="K11">
-        <v>0.502</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7889,10 +7889,10 @@
         <v>-0.281</v>
       </c>
       <c r="J12">
-        <v>-0.13</v>
+        <v>-0.164</v>
       </c>
       <c r="K12">
-        <v>0.897</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7924,10 +7924,10 @@
         <v>-0.27</v>
       </c>
       <c r="J13">
-        <v>-0.132</v>
+        <v>-0.111</v>
       </c>
       <c r="K13">
-        <v>0.895</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7959,10 +7959,10 @@
         <v>0.04</v>
       </c>
       <c r="J14">
-        <v>1.286</v>
+        <v>1.408</v>
       </c>
       <c r="K14">
-        <v>0.2</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7994,10 +7994,10 @@
         <v>0.021</v>
       </c>
       <c r="J15">
-        <v>0.525</v>
+        <v>0.445</v>
       </c>
       <c r="K15">
-        <v>0.601</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8029,10 +8029,10 @@
         <v>-0.138</v>
       </c>
       <c r="J16">
-        <v>-2.59</v>
+        <v>-2.354</v>
       </c>
       <c r="K16">
-        <v>0.011</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8064,10 +8064,10 @@
         <v>-0.143</v>
       </c>
       <c r="J17">
-        <v>-2.388</v>
+        <v>-2.395</v>
       </c>
       <c r="K17">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8099,10 +8099,10 @@
         <v>-0.116</v>
       </c>
       <c r="J18">
-        <v>-1.84</v>
+        <v>-2.161</v>
       </c>
       <c r="K18">
-        <v>0.068</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8134,10 +8134,10 @@
         <v>-0.061</v>
       </c>
       <c r="J19">
-        <v>-0.971</v>
+        <v>-0.86</v>
       </c>
       <c r="K19">
-        <v>0.333</v>
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
@@ -8237,10 +8237,10 @@
         <v>9.557</v>
       </c>
       <c r="K2">
-        <v>2.474</v>
+        <v>3.017</v>
       </c>
       <c r="L2">
-        <v>0.014</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8275,10 +8275,10 @@
         <v>4.108</v>
       </c>
       <c r="K3">
-        <v>1.276</v>
+        <v>1.433</v>
       </c>
       <c r="L3">
-        <v>0.204</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8313,10 +8313,10 @@
         <v>5.207</v>
       </c>
       <c r="K4">
-        <v>1.026</v>
+        <v>1.143</v>
       </c>
       <c r="L4">
-        <v>0.306</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8351,10 +8351,10 @@
         <v>-2.684</v>
       </c>
       <c r="K5">
-        <v>-0.479</v>
+        <v>-0.554</v>
       </c>
       <c r="L5">
-        <v>0.633</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8389,10 +8389,10 @@
         <v>2.004</v>
       </c>
       <c r="K6">
-        <v>0.361</v>
+        <v>0.385</v>
       </c>
       <c r="L6">
-        <v>0.719</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8427,10 +8427,10 @@
         <v>-1.103</v>
       </c>
       <c r="K7">
-        <v>-0.21</v>
+        <v>-0.178</v>
       </c>
       <c r="L7">
-        <v>0.834</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8465,10 +8465,10 @@
         <v>-4.884</v>
       </c>
       <c r="K8">
-        <v>-2.679</v>
+        <v>-3.298</v>
       </c>
       <c r="L8">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8503,10 +8503,10 @@
         <v>-2.408</v>
       </c>
       <c r="K9">
-        <v>-1.36</v>
+        <v>-1.262</v>
       </c>
       <c r="L9">
-        <v>0.176</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8541,10 +8541,10 @@
         <v>-1.607</v>
       </c>
       <c r="K10">
-        <v>-0.72</v>
+        <v>-0.759</v>
       </c>
       <c r="L10">
-        <v>0.473</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8579,10 +8579,10 @@
         <v>1.229</v>
       </c>
       <c r="K11">
-        <v>0.52</v>
+        <v>0.595</v>
       </c>
       <c r="L11">
-        <v>0.603</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8617,10 +8617,10 @@
         <v>-1.004</v>
       </c>
       <c r="K12">
-        <v>-0.426</v>
+        <v>-0.468</v>
       </c>
       <c r="L12">
-        <v>0.671</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8655,10 +8655,10 @@
         <v>0.358</v>
       </c>
       <c r="K13">
-        <v>0.161</v>
+        <v>0.144</v>
       </c>
       <c r="L13">
-        <v>0.873</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8693,10 +8693,10 @@
         <v>0.013</v>
       </c>
       <c r="K14">
-        <v>0.394</v>
+        <v>0.396</v>
       </c>
       <c r="L14">
-        <v>0.694</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8731,10 +8731,10 @@
         <v>-0.014</v>
       </c>
       <c r="K15">
-        <v>-0.311</v>
+        <v>-0.269</v>
       </c>
       <c r="L15">
-        <v>0.756</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8769,10 +8769,10 @@
         <v>-0.156</v>
       </c>
       <c r="K16">
-        <v>-2.672</v>
+        <v>-2.513</v>
       </c>
       <c r="L16">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8807,10 +8807,10 @@
         <v>-0.171</v>
       </c>
       <c r="K17">
-        <v>-2.621</v>
+        <v>-2.342</v>
       </c>
       <c r="L17">
-        <v>0.01</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8845,10 +8845,10 @@
         <v>-0.112</v>
       </c>
       <c r="K18">
-        <v>-1.62</v>
+        <v>-1.923</v>
       </c>
       <c r="L18">
-        <v>0.107</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8883,10 +8883,10 @@
         <v>-0.021</v>
       </c>
       <c r="K19">
-        <v>-0.306</v>
+        <v>-0.281</v>
       </c>
       <c r="L19">
-        <v>0.76</v>
+        <v>0.779</v>
       </c>
     </row>
   </sheetData>
@@ -8986,10 +8986,10 @@
         <v>8.012</v>
       </c>
       <c r="K2">
-        <v>1.716</v>
+        <v>2.63</v>
       </c>
       <c r="L2">
-        <v>0.08799999999999999</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -9024,10 +9024,10 @@
         <v>4.745</v>
       </c>
       <c r="K3">
-        <v>1.23</v>
+        <v>1.51</v>
       </c>
       <c r="L3">
-        <v>0.22</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -9062,10 +9062,10 @@
         <v>5.922</v>
       </c>
       <c r="K4">
-        <v>0.975</v>
+        <v>1.1</v>
       </c>
       <c r="L4">
-        <v>0.331</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -9100,10 +9100,10 @@
         <v>-7.705</v>
       </c>
       <c r="K5">
-        <v>-1.152</v>
+        <v>-1.153</v>
       </c>
       <c r="L5">
-        <v>0.251</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -9138,10 +9138,10 @@
         <v>-1.849</v>
       </c>
       <c r="K6">
-        <v>-0.278</v>
+        <v>-0.271</v>
       </c>
       <c r="L6">
-        <v>0.781</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -9176,10 +9176,10 @@
         <v>-4.904</v>
       </c>
       <c r="K7">
-        <v>-0.78</v>
+        <v>-0.726</v>
       </c>
       <c r="L7">
-        <v>0.436</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -9214,10 +9214,10 @@
         <v>-3.897</v>
       </c>
       <c r="K8">
-        <v>-1.764</v>
+        <v>-2.938</v>
       </c>
       <c r="L8">
-        <v>0.08</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -9252,10 +9252,10 @@
         <v>-2.397</v>
       </c>
       <c r="K9">
-        <v>-1.129</v>
+        <v>-1.176</v>
       </c>
       <c r="L9">
-        <v>0.26</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -9290,10 +9290,10 @@
         <v>-1.71</v>
       </c>
       <c r="K10">
-        <v>-0.639</v>
+        <v>-0.672</v>
       </c>
       <c r="L10">
-        <v>0.524</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -9328,10 +9328,10 @@
         <v>2.697</v>
       </c>
       <c r="K11">
-        <v>0.956</v>
+        <v>0.909</v>
       </c>
       <c r="L11">
-        <v>0.341</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -9366,10 +9366,10 @@
         <v>0.882</v>
       </c>
       <c r="K12">
-        <v>0.312</v>
+        <v>0.334</v>
       </c>
       <c r="L12">
-        <v>0.755</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -9404,10 +9404,10 @@
         <v>1.658</v>
       </c>
       <c r="K13">
-        <v>0.622</v>
+        <v>0.594</v>
       </c>
       <c r="L13">
-        <v>0.535</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -9442,10 +9442,10 @@
         <v>0.029</v>
       </c>
       <c r="K14">
-        <v>0.713</v>
+        <v>1.081</v>
       </c>
       <c r="L14">
-        <v>0.477</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -9480,7 +9480,7 @@
         <v>-0.002</v>
       </c>
       <c r="K15">
-        <v>-0.048</v>
+        <v>-0.047</v>
       </c>
       <c r="L15">
         <v>0.962</v>
@@ -9518,10 +9518,10 @@
         <v>-0.129</v>
       </c>
       <c r="K16">
-        <v>-1.819</v>
+        <v>-1.831</v>
       </c>
       <c r="L16">
-        <v>0.07099999999999999</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -9556,10 +9556,10 @@
         <v>-0.106</v>
       </c>
       <c r="K17">
-        <v>-1.334</v>
+        <v>-1.099</v>
       </c>
       <c r="L17">
-        <v>0.184</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -9594,10 +9594,10 @@
         <v>-0.121</v>
       </c>
       <c r="K18">
-        <v>-1.467</v>
+        <v>-1.784</v>
       </c>
       <c r="L18">
-        <v>0.144</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -9632,10 +9632,10 @@
         <v>0.015</v>
       </c>
       <c r="K19">
-        <v>0.181</v>
+        <v>0.241</v>
       </c>
       <c r="L19">
-        <v>0.856</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9721,10 +9721,10 @@
         <v>5.243</v>
       </c>
       <c r="I2">
-        <v>1.421</v>
+        <v>1.585</v>
       </c>
       <c r="J2">
-        <v>0.157</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9753,10 +9753,10 @@
         <v>-2.911</v>
       </c>
       <c r="I3">
-        <v>-0.839</v>
+        <v>-0.832</v>
       </c>
       <c r="J3">
-        <v>0.402</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9785,10 +9785,10 @@
         <v>2.451</v>
       </c>
       <c r="I4">
-        <v>0.527</v>
+        <v>0.484</v>
       </c>
       <c r="J4">
-        <v>0.599</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9817,10 +9817,10 @@
         <v>-2.416</v>
       </c>
       <c r="I5">
-        <v>-0.486</v>
+        <v>-0.373</v>
       </c>
       <c r="J5">
-        <v>0.627</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9849,10 +9849,10 @@
         <v>-3.412</v>
       </c>
       <c r="I6">
-        <v>-0.662</v>
+        <v>-0.601</v>
       </c>
       <c r="J6">
-        <v>0.509</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9881,10 +9881,10 @@
         <v>1.393</v>
       </c>
       <c r="I7">
-        <v>0.275</v>
+        <v>0.266</v>
       </c>
       <c r="J7">
-        <v>0.783</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9913,10 +9913,10 @@
         <v>-3.581</v>
       </c>
       <c r="I8">
-        <v>-2.118</v>
+        <v>-2.371</v>
       </c>
       <c r="J8">
-        <v>0.035</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9945,10 +9945,10 @@
         <v>0.392</v>
       </c>
       <c r="I9">
-        <v>0.228</v>
+        <v>0.209</v>
       </c>
       <c r="J9">
-        <v>0.82</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9977,10 +9977,10 @@
         <v>-1.283</v>
       </c>
       <c r="I10">
-        <v>-0.634</v>
+        <v>-0.585</v>
       </c>
       <c r="J10">
-        <v>0.527</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10009,10 +10009,10 @@
         <v>1.098</v>
       </c>
       <c r="I11">
-        <v>0.53</v>
+        <v>0.429</v>
       </c>
       <c r="J11">
-        <v>0.597</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10041,10 +10041,10 @@
         <v>1.311</v>
       </c>
       <c r="I12">
-        <v>0.602</v>
+        <v>0.591</v>
       </c>
       <c r="J12">
-        <v>0.548</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10073,10 +10073,10 @@
         <v>-1.073</v>
       </c>
       <c r="I13">
-        <v>-0.502</v>
+        <v>-0.466</v>
       </c>
       <c r="J13">
-        <v>0.616</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10105,10 +10105,10 @@
         <v>-0.001</v>
       </c>
       <c r="I14">
-        <v>-0.033</v>
+        <v>-0.035</v>
       </c>
       <c r="J14">
-        <v>0.973</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10137,10 +10137,10 @@
         <v>0.017</v>
       </c>
       <c r="I15">
-        <v>0.451</v>
+        <v>0.345</v>
       </c>
       <c r="J15">
-        <v>0.652</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10169,10 +10169,10 @@
         <v>-0.17</v>
       </c>
       <c r="I16">
-        <v>-3.33</v>
+        <v>-3.034</v>
       </c>
       <c r="J16">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10201,10 +10201,10 @@
         <v>-0.132</v>
       </c>
       <c r="I17">
-        <v>-2.263</v>
+        <v>-1.796</v>
       </c>
       <c r="J17">
-        <v>0.025</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10233,10 +10233,10 @@
         <v>-0.094</v>
       </c>
       <c r="I18">
-        <v>-1.553</v>
+        <v>-1.664</v>
       </c>
       <c r="J18">
-        <v>0.122</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10265,10 +10265,10 @@
         <v>-0.033</v>
       </c>
       <c r="I19">
-        <v>-0.522</v>
+        <v>-0.533</v>
       </c>
       <c r="J19">
-        <v>0.602</v>
+        <v>0.594</v>
       </c>
     </row>
   </sheetData>
@@ -10354,10 +10354,10 @@
         <v>6.781</v>
       </c>
       <c r="I2">
-        <v>1.538</v>
+        <v>1.491</v>
       </c>
       <c r="J2">
-        <v>0.126</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10386,10 +10386,10 @@
         <v>-0.664</v>
       </c>
       <c r="I3">
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
       <c r="J3">
-        <v>0.873</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10418,10 +10418,10 @@
         <v>1.634</v>
       </c>
       <c r="I4">
-        <v>0.294</v>
+        <v>0.275</v>
       </c>
       <c r="J4">
-        <v>0.769</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10450,10 +10450,10 @@
         <v>-5.249</v>
       </c>
       <c r="I5">
-        <v>-0.885</v>
+        <v>-0.792</v>
       </c>
       <c r="J5">
-        <v>0.377</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10482,10 +10482,10 @@
         <v>-3.954</v>
       </c>
       <c r="I6">
-        <v>-0.641</v>
+        <v>-0.534</v>
       </c>
       <c r="J6">
-        <v>0.522</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10514,10 +10514,10 @@
         <v>-1.564</v>
       </c>
       <c r="I7">
-        <v>-0.258</v>
+        <v>-0.273</v>
       </c>
       <c r="J7">
-        <v>0.796</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10546,10 +10546,10 @@
         <v>-3.865</v>
       </c>
       <c r="I8">
-        <v>-1.907</v>
+        <v>-1.917</v>
       </c>
       <c r="J8">
-        <v>0.058</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10578,10 +10578,10 @@
         <v>-0.87</v>
       </c>
       <c r="I9">
-        <v>-0.424</v>
+        <v>-0.388</v>
       </c>
       <c r="J9">
-        <v>0.672</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10610,10 +10610,10 @@
         <v>-0.748</v>
       </c>
       <c r="I10">
-        <v>-0.309</v>
+        <v>-0.296</v>
       </c>
       <c r="J10">
-        <v>0.758</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10642,10 +10642,10 @@
         <v>1.871</v>
       </c>
       <c r="I11">
-        <v>0.756</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="J11">
-        <v>0.451</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10674,10 +10674,10 @@
         <v>1.514</v>
       </c>
       <c r="I12">
-        <v>0.581</v>
+        <v>0.542</v>
       </c>
       <c r="J12">
-        <v>0.5620000000000001</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10706,10 +10706,10 @@
         <v>0.306</v>
       </c>
       <c r="I13">
-        <v>0.12</v>
+        <v>0.124</v>
       </c>
       <c r="J13">
-        <v>0.905</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10738,10 +10738,10 @@
         <v>-0.024</v>
       </c>
       <c r="I14">
-        <v>-0.667</v>
+        <v>-0.728</v>
       </c>
       <c r="J14">
-        <v>0.506</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10770,10 +10770,10 @@
         <v>-0.03</v>
       </c>
       <c r="I15">
-        <v>-0.664</v>
+        <v>-0.49</v>
       </c>
       <c r="J15">
-        <v>0.508</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10802,7 +10802,7 @@
         <v>-0.23</v>
       </c>
       <c r="I16">
-        <v>-3.795</v>
+        <v>-3.509</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -10834,10 +10834,10 @@
         <v>-0.166</v>
       </c>
       <c r="I17">
-        <v>-2.391</v>
+        <v>-1.673</v>
       </c>
       <c r="J17">
-        <v>0.018</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10866,10 +10866,10 @@
         <v>-0.123</v>
       </c>
       <c r="I18">
-        <v>-1.696</v>
+        <v>-2.038</v>
       </c>
       <c r="J18">
-        <v>0.092</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10898,10 +10898,10 @@
         <v>0.005</v>
       </c>
       <c r="I19">
-        <v>0.064</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="J19">
-        <v>0.949</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10987,10 +10987,10 @@
         <v>6.102</v>
       </c>
       <c r="I2">
-        <v>1.197</v>
+        <v>1.072</v>
       </c>
       <c r="J2">
-        <v>0.233</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11019,10 +11019,10 @@
         <v>2.496</v>
       </c>
       <c r="I3">
-        <v>0.521</v>
+        <v>0.635</v>
       </c>
       <c r="J3">
-        <v>0.603</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11051,10 +11051,10 @@
         <v>1.06</v>
       </c>
       <c r="I4">
-        <v>0.165</v>
+        <v>0.145</v>
       </c>
       <c r="J4">
-        <v>0.869</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11083,10 +11083,10 @@
         <v>-6.082</v>
       </c>
       <c r="I5">
-        <v>-0.888</v>
+        <v>-0.902</v>
       </c>
       <c r="J5">
-        <v>0.375</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11115,10 +11115,10 @@
         <v>-5.886</v>
       </c>
       <c r="I6">
-        <v>-0.827</v>
+        <v>-0.821</v>
       </c>
       <c r="J6">
-        <v>0.409</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11147,10 +11147,10 @@
         <v>-2.085</v>
       </c>
       <c r="I7">
-        <v>-0.299</v>
+        <v>-0.384</v>
       </c>
       <c r="J7">
-        <v>0.766</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11179,10 +11179,10 @@
         <v>-3.228</v>
       </c>
       <c r="I8">
-        <v>-1.374</v>
+        <v>-1.287</v>
       </c>
       <c r="J8">
-        <v>0.171</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11211,10 +11211,10 @@
         <v>-2.024</v>
       </c>
       <c r="I9">
-        <v>-0.855</v>
+        <v>-0.972</v>
       </c>
       <c r="J9">
-        <v>0.394</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11243,10 +11243,10 @@
         <v>-1.135</v>
       </c>
       <c r="I10">
-        <v>-0.406</v>
+        <v>-0.374</v>
       </c>
       <c r="J10">
-        <v>0.6850000000000001</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11275,10 +11275,10 @@
         <v>2.034</v>
       </c>
       <c r="I11">
-        <v>0.712</v>
+        <v>0.661</v>
       </c>
       <c r="J11">
-        <v>0.477</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11307,10 +11307,10 @@
         <v>2.408</v>
       </c>
       <c r="I12">
-        <v>0.802</v>
+        <v>0.919</v>
       </c>
       <c r="J12">
-        <v>0.424</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11339,10 +11339,10 @@
         <v>0.386</v>
       </c>
       <c r="I13">
-        <v>0.131</v>
+        <v>0.169</v>
       </c>
       <c r="J13">
-        <v>0.896</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11371,10 +11371,10 @@
         <v>-0.006</v>
       </c>
       <c r="I14">
-        <v>-0.154</v>
+        <v>-0.165</v>
       </c>
       <c r="J14">
-        <v>0.878</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11403,10 +11403,10 @@
         <v>-0.027</v>
       </c>
       <c r="I15">
-        <v>-0.518</v>
+        <v>-0.431</v>
       </c>
       <c r="J15">
-        <v>0.605</v>
+        <v>0.666</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11435,10 +11435,10 @@
         <v>-0.191</v>
       </c>
       <c r="I16">
-        <v>-2.685</v>
+        <v>-2.523</v>
       </c>
       <c r="J16">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11467,10 +11467,10 @@
         <v>-0.115</v>
       </c>
       <c r="I17">
-        <v>-1.419</v>
+        <v>-1.085</v>
       </c>
       <c r="J17">
-        <v>0.158</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11499,10 +11499,10 @@
         <v>-0.139</v>
       </c>
       <c r="I18">
-        <v>-1.659</v>
+        <v>-2.124</v>
       </c>
       <c r="J18">
-        <v>0.099</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11531,10 +11531,10 @@
         <v>0.038</v>
       </c>
       <c r="I19">
-        <v>0.434</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="J19">
-        <v>0.665</v>
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -11620,10 +11620,10 @@
         <v>3.151</v>
       </c>
       <c r="I2">
-        <v>1.071</v>
+        <v>1.383</v>
       </c>
       <c r="J2">
-        <v>0.286</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11652,10 +11652,10 @@
         <v>1.793</v>
       </c>
       <c r="I3">
-        <v>0.664</v>
+        <v>0.698</v>
       </c>
       <c r="J3">
-        <v>0.508</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11684,10 +11684,10 @@
         <v>2.5</v>
       </c>
       <c r="I4">
-        <v>0.657</v>
+        <v>0.604</v>
       </c>
       <c r="J4">
-        <v>0.512</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11716,10 +11716,10 @@
         <v>-3.406</v>
       </c>
       <c r="I5">
-        <v>-0.85</v>
+        <v>-0.73</v>
       </c>
       <c r="J5">
-        <v>0.396</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11748,10 +11748,10 @@
         <v>-1.163</v>
       </c>
       <c r="I6">
-        <v>-0.278</v>
+        <v>-0.258</v>
       </c>
       <c r="J6">
-        <v>0.781</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11780,10 +11780,10 @@
         <v>0.202</v>
       </c>
       <c r="I7">
-        <v>0.049</v>
+        <v>0.052</v>
       </c>
       <c r="J7">
-        <v>0.961</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11812,10 +11812,10 @@
         <v>-1.588</v>
       </c>
       <c r="I8">
-        <v>-1.157</v>
+        <v>-1.237</v>
       </c>
       <c r="J8">
-        <v>0.249</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11844,10 +11844,10 @@
         <v>-0.8179999999999999</v>
       </c>
       <c r="I9">
-        <v>-0.59</v>
+        <v>-0.616</v>
       </c>
       <c r="J9">
-        <v>0.556</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11876,10 +11876,10 @@
         <v>-1.167</v>
       </c>
       <c r="I10">
-        <v>-0.701</v>
+        <v>-0.622</v>
       </c>
       <c r="J10">
-        <v>0.484</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11908,10 +11908,10 @@
         <v>1.493</v>
       </c>
       <c r="I11">
-        <v>0.881</v>
+        <v>0.795</v>
       </c>
       <c r="J11">
-        <v>0.38</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11940,10 +11940,10 @@
         <v>0.104</v>
       </c>
       <c r="I12">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="J12">
-        <v>0.954</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12004,10 +12004,10 @@
         <v>0.02</v>
       </c>
       <c r="I14">
-        <v>0.836</v>
+        <v>0.884</v>
       </c>
       <c r="J14">
-        <v>0.404</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12036,10 +12036,10 @@
         <v>0.032</v>
       </c>
       <c r="I15">
-        <v>1.024</v>
+        <v>0.948</v>
       </c>
       <c r="J15">
-        <v>0.307</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12068,10 +12068,10 @@
         <v>-0.101</v>
       </c>
       <c r="I16">
-        <v>-2.386</v>
+        <v>-1.762</v>
       </c>
       <c r="J16">
-        <v>0.018</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12100,10 +12100,10 @@
         <v>-0.061</v>
       </c>
       <c r="I17">
-        <v>-1.272</v>
+        <v>-1.034</v>
       </c>
       <c r="J17">
-        <v>0.205</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12132,10 +12132,10 @@
         <v>-0.041</v>
       </c>
       <c r="I18">
-        <v>-0.8120000000000001</v>
+        <v>-0.794</v>
       </c>
       <c r="J18">
-        <v>0.418</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12164,10 +12164,10 @@
         <v>-0.018</v>
       </c>
       <c r="I19">
-        <v>-0.335</v>
+        <v>-0.385</v>
       </c>
       <c r="J19">
-        <v>0.738</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -12260,10 +12260,10 @@
         <v>3.566</v>
       </c>
       <c r="J2">
-        <v>1.021</v>
+        <v>0.98</v>
       </c>
       <c r="K2">
-        <v>0.309</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -12295,10 +12295,10 @@
         <v>-1.825</v>
       </c>
       <c r="J3">
-        <v>-0.569</v>
+        <v>-0.606</v>
       </c>
       <c r="K3">
-        <v>0.57</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -12330,10 +12330,10 @@
         <v>4.839</v>
       </c>
       <c r="J4">
-        <v>1.073</v>
+        <v>1.162</v>
       </c>
       <c r="K4">
-        <v>0.284</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -12365,10 +12365,10 @@
         <v>-2.433</v>
       </c>
       <c r="J5">
-        <v>-0.511</v>
+        <v>-0.54</v>
       </c>
       <c r="K5">
-        <v>0.61</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -12400,10 +12400,10 @@
         <v>2.916</v>
       </c>
       <c r="J6">
-        <v>0.587</v>
+        <v>0.653</v>
       </c>
       <c r="K6">
-        <v>0.5580000000000001</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -12435,10 +12435,10 @@
         <v>2.269</v>
       </c>
       <c r="J7">
-        <v>0.464</v>
+        <v>0.572</v>
       </c>
       <c r="K7">
-        <v>0.643</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -12470,10 +12470,10 @@
         <v>-2.195</v>
       </c>
       <c r="J8">
-        <v>-1.351</v>
+        <v>-1.163</v>
       </c>
       <c r="K8">
-        <v>0.178</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -12505,7 +12505,7 @@
         <v>0.424</v>
       </c>
       <c r="J9">
-        <v>0.258</v>
+        <v>0.257</v>
       </c>
       <c r="K9">
         <v>0.797</v>
@@ -12540,10 +12540,10 @@
         <v>-1.959</v>
       </c>
       <c r="J10">
-        <v>-0.993</v>
+        <v>-0.916</v>
       </c>
       <c r="K10">
-        <v>0.322</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -12578,7 +12578,7 @@
         <v>0.345</v>
       </c>
       <c r="K11">
-        <v>0.731</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -12610,10 +12610,10 @@
         <v>-1.439</v>
       </c>
       <c r="J12">
-        <v>-0.679</v>
+        <v>-0.749</v>
       </c>
       <c r="K12">
-        <v>0.498</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -12645,10 +12645,10 @@
         <v>-1.672</v>
       </c>
       <c r="J13">
-        <v>-0.8100000000000001</v>
+        <v>-0.965</v>
       </c>
       <c r="K13">
-        <v>0.419</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -12680,10 +12680,10 @@
         <v>0.012</v>
       </c>
       <c r="J14">
-        <v>0.399</v>
+        <v>0.431</v>
       </c>
       <c r="K14">
-        <v>0.6899999999999999</v>
+        <v>0.666</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -12715,10 +12715,10 @@
         <v>0.044</v>
       </c>
       <c r="J15">
-        <v>1.194</v>
+        <v>0.871</v>
       </c>
       <c r="K15">
-        <v>0.234</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -12750,10 +12750,10 @@
         <v>-0.132</v>
       </c>
       <c r="J16">
-        <v>-2.644</v>
+        <v>-2.211</v>
       </c>
       <c r="K16">
-        <v>0.008999999999999999</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -12785,10 +12785,10 @@
         <v>-0.139</v>
       </c>
       <c r="J17">
-        <v>-2.482</v>
+        <v>-1.933</v>
       </c>
       <c r="K17">
-        <v>0.014</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -12820,10 +12820,10 @@
         <v>-0.123</v>
       </c>
       <c r="J18">
-        <v>-2.083</v>
+        <v>-2.567</v>
       </c>
       <c r="K18">
-        <v>0.039</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -12855,10 +12855,10 @@
         <v>-0.032</v>
       </c>
       <c r="J19">
-        <v>-0.516</v>
+        <v>-0.536</v>
       </c>
       <c r="K19">
-        <v>0.606</v>
+        <v>0.592</v>
       </c>
     </row>
   </sheetData>
@@ -12951,10 +12951,10 @@
         <v>4.257</v>
       </c>
       <c r="J2">
-        <v>1.059</v>
+        <v>1.187</v>
       </c>
       <c r="K2">
-        <v>0.291</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -12986,10 +12986,10 @@
         <v>0.785</v>
       </c>
       <c r="J3">
-        <v>0.213</v>
+        <v>0.249</v>
       </c>
       <c r="K3">
-        <v>0.832</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13021,10 +13021,10 @@
         <v>5.596</v>
       </c>
       <c r="J4">
-        <v>1.079</v>
+        <v>1.14</v>
       </c>
       <c r="K4">
-        <v>0.282</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13056,10 +13056,10 @@
         <v>-2.232</v>
       </c>
       <c r="J5">
-        <v>-0.408</v>
+        <v>-0.624</v>
       </c>
       <c r="K5">
-        <v>0.6840000000000001</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13091,10 +13091,10 @@
         <v>4.386</v>
       </c>
       <c r="J6">
-        <v>0.768</v>
+        <v>0.671</v>
       </c>
       <c r="K6">
-        <v>0.443</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -13126,10 +13126,10 @@
         <v>1.886</v>
       </c>
       <c r="J7">
-        <v>0.335</v>
+        <v>0.422</v>
       </c>
       <c r="K7">
-        <v>0.738</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13161,10 +13161,10 @@
         <v>-2.45</v>
       </c>
       <c r="J8">
-        <v>-1.31</v>
+        <v>-1.232</v>
       </c>
       <c r="K8">
-        <v>0.192</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13196,10 +13196,10 @@
         <v>-0.903</v>
       </c>
       <c r="J9">
-        <v>-0.477</v>
+        <v>-0.499</v>
       </c>
       <c r="K9">
-        <v>0.634</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13231,10 +13231,10 @@
         <v>-1.903</v>
       </c>
       <c r="J10">
-        <v>-0.838</v>
+        <v>-0.79</v>
       </c>
       <c r="K10">
-        <v>0.403</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13266,10 +13266,10 @@
         <v>0.5620000000000001</v>
       </c>
       <c r="J11">
-        <v>0.242</v>
+        <v>0.316</v>
       </c>
       <c r="K11">
-        <v>0.8090000000000001</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13301,10 +13301,10 @@
         <v>-1.872</v>
       </c>
       <c r="J12">
-        <v>-0.768</v>
+        <v>-0.709</v>
       </c>
       <c r="K12">
-        <v>0.444</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13336,10 +13336,10 @@
         <v>-1.294</v>
       </c>
       <c r="J13">
-        <v>-0.544</v>
+        <v>-0.733</v>
       </c>
       <c r="K13">
-        <v>0.587</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13371,10 +13371,10 @@
         <v>-0.016</v>
       </c>
       <c r="J14">
-        <v>-0.473</v>
+        <v>-0.442</v>
       </c>
       <c r="K14">
-        <v>0.637</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13406,10 +13406,10 @@
         <v>-0.006</v>
       </c>
       <c r="J15">
-        <v>-0.148</v>
+        <v>-0.103</v>
       </c>
       <c r="K15">
-        <v>0.882</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13441,10 +13441,10 @@
         <v>-0.183</v>
       </c>
       <c r="J16">
-        <v>-3.22</v>
+        <v>-2.603</v>
       </c>
       <c r="K16">
-        <v>0.002</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13476,10 +13476,10 @@
         <v>-0.191</v>
       </c>
       <c r="J17">
-        <v>-2.974</v>
+        <v>-1.943</v>
       </c>
       <c r="K17">
-        <v>0.003</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13511,10 +13511,10 @@
         <v>-0.14</v>
       </c>
       <c r="J18">
-        <v>-2.069</v>
+        <v>-2.627</v>
       </c>
       <c r="K18">
-        <v>0.04</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -13546,10 +13546,10 @@
         <v>-0.002</v>
       </c>
       <c r="J19">
-        <v>-0.023</v>
+        <v>-0.022</v>
       </c>
       <c r="K19">
-        <v>0.982</v>
+        <v>0.983</v>
       </c>
     </row>
   </sheetData>
@@ -13642,10 +13642,10 @@
         <v>1.941</v>
       </c>
       <c r="J2">
-        <v>0.421</v>
+        <v>0.456</v>
       </c>
       <c r="K2">
-        <v>0.674</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -13677,10 +13677,10 @@
         <v>3.628</v>
       </c>
       <c r="J3">
-        <v>0.859</v>
+        <v>1.126</v>
       </c>
       <c r="K3">
-        <v>0.391</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13712,10 +13712,10 @@
         <v>6.337</v>
       </c>
       <c r="J4">
-        <v>1.066</v>
+        <v>1.242</v>
       </c>
       <c r="K4">
-        <v>0.288</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13747,10 +13747,10 @@
         <v>-4.418</v>
       </c>
       <c r="J5">
-        <v>-0.705</v>
+        <v>-0.855</v>
       </c>
       <c r="K5">
-        <v>0.482</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13782,10 +13782,10 @@
         <v>2.577</v>
       </c>
       <c r="J6">
-        <v>0.394</v>
+        <v>0.343</v>
       </c>
       <c r="K6">
-        <v>0.694</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -13817,10 +13817,10 @@
         <v>0.974</v>
       </c>
       <c r="J7">
-        <v>0.151</v>
+        <v>0.184</v>
       </c>
       <c r="K7">
-        <v>0.88</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13852,10 +13852,10 @@
         <v>-1.101</v>
       </c>
       <c r="J8">
-        <v>-0.512</v>
+        <v>-0.466</v>
       </c>
       <c r="K8">
-        <v>0.609</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13887,10 +13887,10 @@
         <v>-1.879</v>
       </c>
       <c r="J9">
-        <v>-0.868</v>
+        <v>-1.055</v>
       </c>
       <c r="K9">
-        <v>0.386</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13922,10 +13922,10 @@
         <v>-2.209</v>
       </c>
       <c r="J10">
-        <v>-0.849</v>
+        <v>-0.854</v>
       </c>
       <c r="K10">
-        <v>0.397</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13957,10 +13957,10 @@
         <v>1.081</v>
       </c>
       <c r="J11">
-        <v>0.407</v>
+        <v>0.454</v>
       </c>
       <c r="K11">
-        <v>0.6840000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13992,10 +13992,10 @@
         <v>-1.345</v>
       </c>
       <c r="J12">
-        <v>-0.481</v>
+        <v>-0.441</v>
       </c>
       <c r="K12">
-        <v>0.631</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -14027,10 +14027,10 @@
         <v>-1.107</v>
       </c>
       <c r="J13">
-        <v>-0.406</v>
+        <v>-0.548</v>
       </c>
       <c r="K13">
-        <v>0.6850000000000001</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -14062,10 +14062,10 @@
         <v>-0.001</v>
       </c>
       <c r="J14">
-        <v>-0.026</v>
+        <v>-0.025</v>
       </c>
       <c r="K14">
-        <v>0.979</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -14097,10 +14097,10 @@
         <v>0.008</v>
       </c>
       <c r="J15">
-        <v>0.169</v>
+        <v>0.136</v>
       </c>
       <c r="K15">
-        <v>0.866</v>
+        <v>0.892</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -14132,10 +14132,10 @@
         <v>-0.131</v>
       </c>
       <c r="J16">
-        <v>-1.979</v>
+        <v>-2.072</v>
       </c>
       <c r="K16">
-        <v>0.049</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -14167,10 +14167,10 @@
         <v>-0.112</v>
       </c>
       <c r="J17">
-        <v>-1.504</v>
+        <v>-1.082</v>
       </c>
       <c r="K17">
-        <v>0.134</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -14202,10 +14202,10 @@
         <v>-0.148</v>
       </c>
       <c r="J18">
-        <v>-1.911</v>
+        <v>-2.326</v>
       </c>
       <c r="K18">
-        <v>0.058</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -14237,10 +14237,10 @@
         <v>0.048</v>
       </c>
       <c r="J19">
-        <v>0.582</v>
+        <v>0.638</v>
       </c>
       <c r="K19">
-        <v>0.5610000000000001</v>
+        <v>0.523</v>
       </c>
     </row>
   </sheetData>
@@ -14326,10 +14326,10 @@
         <v>8.436999999999999</v>
       </c>
       <c r="I2">
-        <v>3.016</v>
+        <v>4.282</v>
       </c>
       <c r="J2">
-        <v>0.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -14358,10 +14358,10 @@
         <v>1.151</v>
       </c>
       <c r="I3">
-        <v>0.462</v>
+        <v>0.503</v>
       </c>
       <c r="J3">
-        <v>0.645</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14390,10 +14390,10 @@
         <v>2.273</v>
       </c>
       <c r="I4">
-        <v>0.61</v>
+        <v>0.648</v>
       </c>
       <c r="J4">
-        <v>0.543</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14422,10 +14422,10 @@
         <v>-1.204</v>
       </c>
       <c r="I5">
-        <v>-0.299</v>
+        <v>-0.224</v>
       </c>
       <c r="J5">
-        <v>0.765</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14454,10 +14454,10 @@
         <v>-0.226</v>
       </c>
       <c r="I6">
-        <v>-0.055</v>
+        <v>-0.042</v>
       </c>
       <c r="J6">
-        <v>0.956</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14486,10 +14486,10 @@
         <v>1.098</v>
       </c>
       <c r="I7">
-        <v>0.276</v>
+        <v>0.229</v>
       </c>
       <c r="J7">
-        <v>0.783</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -14518,10 +14518,10 @@
         <v>-4.076</v>
       </c>
       <c r="I8">
-        <v>-3.066</v>
+        <v>-3.67</v>
       </c>
       <c r="J8">
-        <v>0.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14550,10 +14550,10 @@
         <v>-0.365</v>
       </c>
       <c r="I9">
-        <v>-0.272</v>
+        <v>-0.288</v>
       </c>
       <c r="J9">
-        <v>0.786</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -14582,10 +14582,10 @@
         <v>-0.8090000000000001</v>
       </c>
       <c r="I10">
-        <v>-0.492</v>
+        <v>-0.502</v>
       </c>
       <c r="J10">
-        <v>0.624</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14614,10 +14614,10 @@
         <v>0.899</v>
       </c>
       <c r="I11">
-        <v>0.528</v>
+        <v>0.415</v>
       </c>
       <c r="J11">
-        <v>0.598</v>
+        <v>0.678</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -14646,10 +14646,10 @@
         <v>0.042</v>
       </c>
       <c r="I12">
-        <v>0.024</v>
+        <v>0.02</v>
       </c>
       <c r="J12">
-        <v>0.981</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -14678,10 +14678,10 @@
         <v>-0.655</v>
       </c>
       <c r="I13">
-        <v>-0.385</v>
+        <v>-0.324</v>
       </c>
       <c r="J13">
-        <v>0.7</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14710,10 +14710,10 @@
         <v>0.047</v>
       </c>
       <c r="I14">
-        <v>1.933</v>
+        <v>1.703</v>
       </c>
       <c r="J14">
-        <v>0.055</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14742,10 +14742,10 @@
         <v>0.016</v>
       </c>
       <c r="I15">
-        <v>0.503</v>
+        <v>0.521</v>
       </c>
       <c r="J15">
-        <v>0.616</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14774,10 +14774,10 @@
         <v>-0.079</v>
       </c>
       <c r="I16">
-        <v>-1.862</v>
+        <v>-1.363</v>
       </c>
       <c r="J16">
-        <v>0.064</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14806,10 +14806,10 @@
         <v>-0.028</v>
       </c>
       <c r="I17">
-        <v>-0.582</v>
+        <v>-0.503</v>
       </c>
       <c r="J17">
-        <v>0.5620000000000001</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14838,10 +14838,10 @@
         <v>-0.037</v>
       </c>
       <c r="I18">
-        <v>-0.744</v>
+        <v>-0.699</v>
       </c>
       <c r="J18">
-        <v>0.458</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14870,10 +14870,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I19">
-        <v>0.19</v>
+        <v>0.188</v>
       </c>
       <c r="J19">
-        <v>0.849</v>
+        <v>0.851</v>
       </c>
     </row>
   </sheetData>
